--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Reece J W Topley</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>09/02/2016</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>01/08/2020</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1198,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1188,7 +1245,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -1196,7 +1252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>01/02/2023</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1587,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1609,7 +1662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1646,7 +1699,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1683,7 +1736,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1720,7 +1773,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1757,7 +1810,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1794,7 +1847,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1831,7 +1884,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1868,7 +1921,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1905,7 +1958,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1942,7 +1995,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1979,7 +2032,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2016,7 +2069,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2053,7 +2106,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2090,7 +2143,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2127,7 +2180,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2164,7 +2217,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2201,7 +2254,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2238,7 +2291,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2275,7 +2328,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2312,7 +2365,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2349,7 +2402,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2386,7 +2439,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2423,7 +2476,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2451,6 +2504,465 @@
           <t>0/48</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3861</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3863</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3885</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3887</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3890</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.45%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2565,9 +2566,6 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2580,15 +2578,402 @@
           <t>3861</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3863</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3885</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3887</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3890</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5.45%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3861</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2596,15 +2981,14 @@
           <t>3863</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2614,23 +2998,14 @@
           <t>3885</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>11</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2640,13 +3015,14 @@
           <t>3887</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2656,25 +3032,8 @@
           <t>3889</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2682,27 +3041,14 @@
           <t>3890</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2712,15 +3058,14 @@
           <t>3891</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2730,13 +3075,14 @@
           <t>4427</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2748,13 +3094,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2762,13 +3101,14 @@
           <t>4457</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2778,29 +3118,8 @@
           <t>4598</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.45%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2808,29 +3127,8 @@
           <t>4599</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.22%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2838,25 +3136,12 @@
           <t>4609</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2864,27 +3149,14 @@
           <t>4613</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>11</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -2894,13 +3166,14 @@
           <t>4618</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2910,15 +3183,14 @@
           <t>4620</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2928,17 +3200,8 @@
           <t>4622</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2946,11 +3209,12 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2958,11 +3222,12 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1513,7 +1512,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2566,6 +2565,9 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2578,6 +2580,10 @@
           <t>3861</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2593,6 +2599,9 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2618,6 +2627,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2630,6 +2640,10 @@
           <t>3887</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2655,6 +2669,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2700,6 +2715,9 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2712,6 +2730,10 @@
           <t>4427</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2724,6 +2746,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2736,6 +2762,10 @@
           <t>4457</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2821,6 +2851,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2863,6 +2894,10 @@
           <t>4618</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2878,6 +2913,9 @@
       <c r="B18" t="n">
         <v>11</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2893,6 +2931,9 @@
       <c r="B19" t="n">
         <v>11</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2905,6 +2946,11 @@
           <t>4699</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2912,322 +2958,11 @@
           <t>4700</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3859</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3861</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3863</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3885</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3887</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3889</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3890</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3891</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4479.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -708,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -854,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -901,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>09/02/2016</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>01/08/2020</t>
@@ -1099,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -1198,6 +1204,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -1245,6 +1252,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -1500,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1547,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -1594,6 +1604,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>01/02/2023</t>
@@ -2508,463 +2519,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3859</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3861</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3863</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3885</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3887</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3889</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3890</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3891</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.45%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.22%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>